--- a/medicine/Handicap/Librairie_des_Grands_Caractères/Librairie_des_Grands_Caractères.xlsx
+++ b/medicine/Handicap/Librairie_des_Grands_Caractères/Librairie_des_Grands_Caractères.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Librairie_des_Grands_Caract%C3%A8res</t>
+          <t>Librairie_des_Grands_Caractères</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Librairie des Grands Caractères est la première librairie en France exclusivement dédiée aux livres en grands caractères[réf. nécessaire]. Elle a ouvert ses portes à Paris en janvier 2021.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Librairie_des_Grands_Caract%C3%A8res</t>
+          <t>Librairie_des_Grands_Caractères</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Librairie des Grands Caractères est située rue Laplace dans le 5e arrondissement de Paris en haut de la montagne Sainte-Geneviève, près du Panthéon. Elle propose des ouvrages adaptés pour les personnes souffrant de problèmes de vue, de difficultés d’apprentissage, ou de troubles cognitifs, des livres avec grand confort de lecture grâce à leur mise en page spécialement adaptée, à des polices de caractères sobres (Verdana, Arial, Helvetica, Luciole[1]), à des interlettrages et des interlignages importants, et à une impression contrastée sur des papiers opaques.
-Le 3 juillet 2022, la librairie des Grands Caractères a reçu le Prix du service innovant 2022 lors de la cérémonie de la 4e édition du Grand prix Livres Hebdo des librairies, devant plus de 1200 libraires réunis lors des 6e Rencontres nationales de la librairie à Angers[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Librairie des Grands Caractères est située rue Laplace dans le 5e arrondissement de Paris en haut de la montagne Sainte-Geneviève, près du Panthéon. Elle propose des ouvrages adaptés pour les personnes souffrant de problèmes de vue, de difficultés d’apprentissage, ou de troubles cognitifs, des livres avec grand confort de lecture grâce à leur mise en page spécialement adaptée, à des polices de caractères sobres (Verdana, Arial, Helvetica, Luciole), à des interlettrages et des interlignages importants, et à une impression contrastée sur des papiers opaques.
+Le 3 juillet 2022, la librairie des Grands Caractères a reçu le Prix du service innovant 2022 lors de la cérémonie de la 4e édition du Grand prix Livres Hebdo des librairies, devant plus de 1200 libraires réunis lors des 6e Rencontres nationales de la librairie à Angers.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Librairie_des_Grands_Caract%C3%A8res</t>
+          <t>Librairie_des_Grands_Caractères</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,13 +557,15 @@
           <t>Éditeurs de grands caractères présents dans la librairie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>À Vue d’œil (adulte), maison d’édition créée en 1997, qui publie près de cent nouveautés par an.
 Voir de Près (adulte et jeunesse), qui depuis 2017 publie exclusivement des livres en grands caractères.
 Passiflore (adulte)
 Palémon vision (adulte), une collection en grands caractères qui propose, depuis 2021, les nouveautés des éditions Palémon dans ce format en plus du format poche habituel. Les éditions Palémon sont un éditeur important du roman régional en Bretagne.
-Rue Laplace, collection grands caractères - typographie Luciole[3] (adulte), qui a été créée à pour compléter l’offre biographies, récits et romans historiques de la Librairie des Grands Caractères. Un programme éditorial a été élaboré, avec le concours de l’association Les Amis des Grands Caractères, pour la publication dans cette collection de plus de quinze livres par an.
+Rue Laplace, collection grands caractères - typographie Luciole (adulte), qui a été créée à pour compléter l’offre biographies, récits et romans historiques de la Librairie des Grands Caractères. Un programme éditorial a été élaboré, avec le concours de l’association Les Amis des Grands Caractères, pour la publication dans cette collection de plus de quinze livres par an.
 Bravo ! (jeux), éditeur québécois qui s'adresse à des passionnés de jeux souffrant de troubles de la vue.
 Les doigts qui rêvent (jeunesse), maison d’édition associative créée en 1994, qui répond aux besoins d’accès à la lecture et à la culture des enfants en situation de handicap visuel, en créant des livres tactiles illustrés.
 Mes Mains en or (jeunesse), maison d’édition associative fondée en 2010 à Limoges et dont la spécialité est l’édition de livres tactiles pour enfants déficients visuels.
